--- a/forms/app/assessment.xlsx
+++ b/forms/app/assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PatientID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/_id</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -333,13 +345,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -371,13 +387,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.80078125" defaultRowHeight="38.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.80859375" defaultRowHeight="38.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -417,7 +433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -427,173 +443,188 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" s="4" customFormat="true" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -617,11 +648,11 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.1953125" defaultRowHeight="25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.203125" defaultRowHeight="25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -631,190 +662,190 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="18" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -843,45 +874,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>75</v>
+      <c r="D2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/assessment.xlsx
+++ b/forms/app/assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -60,16 +60,43 @@
     <t xml:space="preserve">default</t>
   </si>
   <si>
-    <t xml:space="preserve">calculate</t>
+    <t xml:space="preserve">begin group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db:person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db-object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
   </si>
   <si>
     <t xml:space="preserve">patient_id</t>
   </si>
   <si>
-    <t xml:space="preserve">PatientID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/_id</t>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_of_birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end group</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -79,9 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">What is the age of the patient:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">select_one yes_no</t>
@@ -354,12 +378,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -387,15 +411,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.80859375" defaultRowHeight="38.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.83203125" defaultRowHeight="42.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,199 +457,634 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -648,11 +1107,11 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.203125" defaultRowHeight="25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.20703125" defaultRowHeight="25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -663,189 +1122,189 @@
     </row>
     <row r="2" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -874,45 +1333,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
